--- a/cleaned/navi_mutual_fund_portfolio.xlsx
+++ b/cleaned/navi_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,12 +511,12 @@
           <t>INE153T01027</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>LEISURE SERVICES</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>105200</t>
@@ -517,17 +532,20 @@
           <t>3.87</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -544,12 +562,12 @@
           <t>INE0OV601013</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>OTHER UTILITIES</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>52500</t>
@@ -565,17 +583,20 @@
           <t>3.59</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -592,12 +613,12 @@
           <t>INE628A01036</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>FERTILIZERS &amp; AGROCHEMICALS</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>66500</t>
@@ -613,17 +634,20 @@
           <t>3.39</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -640,12 +664,12 @@
           <t>INE891D01026</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>COMMERCIAL SERVICES &amp; SUPPLIES</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>192100</t>
@@ -661,17 +685,20 @@
           <t>3.34</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -688,12 +715,12 @@
           <t>INE238A01034</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>BANKS</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>39100</t>
@@ -709,17 +736,20 @@
           <t>3.25</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -736,12 +766,12 @@
           <t>INE228A01035</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>INDUSTRIAL PRODUCTS</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>109800</t>
@@ -757,17 +787,20 @@
           <t>3.17</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -784,12 +817,12 @@
           <t>INE602W01027</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>CONSUMER DURABLES</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>77200</t>
@@ -805,17 +838,20 @@
           <t>3.06</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -832,12 +868,12 @@
           <t>INE741K01010</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>FINANCE</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>31300</t>
@@ -853,17 +889,20 @@
           <t>2.86</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -880,12 +919,12 @@
           <t>INE162B01018</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>AUTO COMPONENTS</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>15600</t>
@@ -901,17 +940,20 @@
           <t>2.86</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -928,12 +970,12 @@
           <t>INE002A01018</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>PETROLEUM PRODUCTS</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>25400</t>
@@ -949,17 +991,20 @@
           <t>2.71</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -976,12 +1021,12 @@
           <t>INE953O01021</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>AUTO COMPONENTS</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>25200</t>
@@ -997,17 +1042,20 @@
           <t>2.68</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1024,12 +1072,12 @@
           <t>INE227C01017</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>AUTO COMPONENTS</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>69900</t>
@@ -1045,17 +1093,20 @@
           <t>2.56</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1072,12 +1123,12 @@
           <t>INE059A01026</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>PHARMACEUTICALS &amp; BIOTECHNOLOGY</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>19800</t>
@@ -1093,17 +1144,20 @@
           <t>2.47</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1120,12 +1174,12 @@
           <t>INE095A01012</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>BANKS</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>29000</t>
@@ -1141,17 +1195,20 @@
           <t>2.43</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1168,12 +1225,12 @@
           <t>INE040A01034</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>BANKS</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>16868</t>
@@ -1189,17 +1246,20 @@
           <t>2.42</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1216,12 +1276,12 @@
           <t>INE010B01027</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>PHARMACEUTICALS &amp; BIOTECHNOLOGY</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>28285</t>
@@ -1237,17 +1297,20 @@
           <t>2.32</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1264,12 +1327,12 @@
           <t>INE524A01029</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>AUTO COMPONENTS</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>59000</t>
@@ -1285,17 +1348,20 @@
           <t>2.29</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1312,12 +1378,12 @@
           <t>INE030A01027</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>DIVERSIFIED FMCG</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>10800</t>
@@ -1333,17 +1399,20 @@
           <t>2.25</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1360,12 +1429,12 @@
           <t>INE090A01021</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>BANKS</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>21000</t>
@@ -1381,17 +1450,20 @@
           <t>2.22</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1408,12 +1480,12 @@
           <t>INE737H01014</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>AUTO COMPONENTS</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>16200</t>
@@ -1429,17 +1501,20 @@
           <t>1.91</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1456,12 +1531,12 @@
           <t>INE200M01039</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>BEVERAGES</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>41500</t>
@@ -1477,17 +1552,20 @@
           <t>1.88</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1504,12 +1582,12 @@
           <t>INE009A01021</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>IT - SOFTWARE</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>11100</t>
@@ -1525,17 +1603,20 @@
           <t>1.76</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1552,12 +1633,12 @@
           <t>INE397D01024</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>TELECOM - SERVICES</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>12074</t>
@@ -1573,17 +1654,20 @@
           <t>1.66</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1600,12 +1684,12 @@
           <t>INE154A01025</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>DIVERSIFIED FMCG</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>39000</t>
@@ -1621,17 +1705,20 @@
           <t>1.47</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1648,12 +1735,12 @@
           <t>INE03Q201024</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>PHARMACEUTICALS &amp; BIOTECHNOLOGY</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>12600</t>
@@ -1669,17 +1756,20 @@
           <t>1.28</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1696,12 +1786,12 @@
           <t>INE646L01027</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>TRANSPORT SERVICES</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>3500</t>
@@ -1717,17 +1807,20 @@
           <t>1.28</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1744,12 +1837,12 @@
           <t>INE467B01029</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>IT - SOFTWARE</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>3617</t>
@@ -1765,17 +1858,20 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1792,12 +1888,12 @@
           <t>INE721A01047</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>FINANCE</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>21500</t>
@@ -1813,17 +1909,20 @@
           <t>0.99</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1840,12 +1939,12 @@
           <t>INE399C01030</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>AUTO COMPONENTS</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>26500</t>
@@ -1861,17 +1960,20 @@
           <t>0.91</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1888,12 +1990,12 @@
           <t>INE192A01025</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>AGRICULTURAL FOOD &amp; OTHER PRODUCTS</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>9200</t>
@@ -1909,17 +2011,20 @@
           <t>0.8</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1936,12 +2041,12 @@
           <t>INE406A01037</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>PHARMACEUTICALS &amp; BIOTECHNOLOGY</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>7700</t>
@@ -1957,17 +2062,20 @@
           <t>0.76</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -1984,12 +2092,12 @@
           <t>INE522F01014</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CONSUMABLE FUELS</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>22500</t>
@@ -2005,17 +2113,20 @@
           <t>0.75</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2032,12 +2143,12 @@
           <t>INE758E01017</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>FINANCE</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>32500</t>
@@ -2053,17 +2164,20 @@
           <t>0.66</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2080,12 +2194,12 @@
           <t>INE208A01029</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>AGRICULTURAL, COMMERCIAL &amp; CONSTRUCTION VEHICLES</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>31500</t>
@@ -2101,17 +2215,20 @@
           <t>0.58</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2128,12 +2245,12 @@
           <t>INE797F01020</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>LEISURE SERVICES</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>9795</t>
@@ -2149,17 +2266,20 @@
           <t>0.58</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2176,12 +2296,12 @@
           <t>INE065X01017</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>HEALTHCARE SERVICES</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>11000</t>
@@ -2197,17 +2317,20 @@
           <t>0.56</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2224,12 +2347,12 @@
           <t>INE429E01023</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CONSUMER DURABLES</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>2400</t>
@@ -2245,17 +2368,20 @@
           <t>0.49</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2272,12 +2398,12 @@
           <t>INE716B01029</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ENTERTAINMENT</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>8600</t>
@@ -2293,17 +2419,20 @@
           <t>0.47</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2320,12 +2449,12 @@
           <t>INE111Q01021</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>TEXTILES &amp; APPARELS</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>10000</t>
@@ -2341,17 +2470,20 @@
           <t>0.42</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2368,12 +2500,12 @@
           <t>INE054A01027</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CONSUMER DURABLES</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>12000</t>
@@ -2389,17 +2521,20 @@
           <t>0.38</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2416,12 +2551,12 @@
           <t>INE251B01027</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>AEROSPACE &amp; DEFENSE</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>2100</t>
@@ -2437,17 +2572,20 @@
           <t>0.31</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2464,12 +2602,12 @@
           <t>IN9628A01018</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>FERTILIZERS &amp; AGROCHEMICALS</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>6812</t>
@@ -2485,17 +2623,20 @@
           <t>0.19</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2512,12 +2653,12 @@
           <t>INE379A01028</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>LEISURE SERVICES</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>3900</t>
@@ -2533,17 +2674,20 @@
           <t>0.05</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2560,42 +2704,45 @@
           <t>INE414G07FU6</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>584420</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>577.0557</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve">          8.69 %</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>584420</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>577.0557</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Debt Instruments      </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Debt Instruments NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2612,42 +2759,45 @@
           <t>INE556F08JX0</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ICRA AAA</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>350000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>348.8993</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t xml:space="preserve">          7.45 %</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>350000</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>348.8993</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Debt Instruments      </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Debt Instruments NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2664,42 +2814,45 @@
           <t>INE040A08708</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>250000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>244.3715</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t xml:space="preserve">          7.82 %</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>250000</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>244.3715</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Debt Instruments      </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Debt Instruments NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2716,42 +2869,45 @@
           <t>INE020B08906</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>150.005</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t xml:space="preserve">          7.58 %</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>150000</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>150.005</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Debt Instruments      </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Debt Instruments NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2768,42 +2924,45 @@
           <t>INE752E07LZ1</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>90.6917</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t xml:space="preserve">          7.61 %</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>90000</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>90.6917</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Debt Instruments      </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Debt Instruments NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2820,42 +2979,45 @@
           <t>INE090AD6121</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>450000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>447.8648</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t xml:space="preserve">          7.25 %</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>450000</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>447.8648</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">aCertificate of Deposit      </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2872,42 +3034,45 @@
           <t>INE160A16OM8</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>IND A1+</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>99.5223</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t xml:space="preserve">          7.30 %</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>99.5223</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">aCertificate of Deposit      </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2924,42 +3089,45 @@
           <t>INE508G14HC5</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>197.0092</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t xml:space="preserve">         8.53 %</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>200000</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>197.0092</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bCommercial Paper      </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Commercial Paper NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -2976,42 +3144,45 @@
           <t>INE002A14KW4</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CARE A1+</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>149.945</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t xml:space="preserve">         6.70 %</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>150000</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>149.945</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bCommercial Paper      </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Commercial Paper NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3028,42 +3199,45 @@
           <t>IN002023Z513</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>99.5444</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t xml:space="preserve">          6.43 %</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>99.5444</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cTreasury Bills      </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Treasury Bills NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3080,12 +3254,12 @@
           <t>INE040A01034</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>BANKS</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>12637</t>
@@ -3101,17 +3275,20 @@
           <t>14.29</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3128,12 +3305,12 @@
           <t>INE090A01021</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>BANKS</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>11704</t>
@@ -3149,17 +3326,20 @@
           <t>9.76</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3176,12 +3356,12 @@
           <t>INE002A01018</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>PETROLEUM PRODUCTS</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>11237</t>
@@ -3197,17 +3377,20 @@
           <t>9.46</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3224,12 +3407,12 @@
           <t>INE009A01021</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>IT - SOFTWARE</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>6026</t>
@@ -3245,17 +3428,20 @@
           <t>7.54</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3272,12 +3458,12 @@
           <t>INE397D01024</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>TELECOM - SERVICES</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>4480</t>
@@ -3293,17 +3479,20 @@
           <t>4.85</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3320,12 +3509,12 @@
           <t>INE018A01030</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CONSTRUCTION</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>1944</t>
@@ -3341,17 +3530,20 @@
           <t>4.62</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3368,12 +3560,12 @@
           <t>INE467B01029</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>IT - SOFTWARE</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>1686</t>
@@ -3389,17 +3581,20 @@
           <t>4.61</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3416,12 +3611,12 @@
           <t>INE154A01025</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>DIVERSIFIED FMCG</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>15415</t>
@@ -3437,17 +3632,20 @@
           <t>4.59</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3464,12 +3662,12 @@
           <t>INE062A01020</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
         <is>
           <t>BANKS</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>6400</t>
@@ -3485,17 +3683,20 @@
           <t>3.29</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3512,12 +3713,12 @@
           <t>INE238A01034</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
         <is>
           <t>BANKS</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>4746</t>
@@ -3533,17 +3734,20 @@
           <t>3.12</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3560,12 +3764,12 @@
           <t>INE237A01028</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
         <is>
           <t>BANKS</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>2445</t>
@@ -3581,17 +3785,20 @@
           <t>3.1</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3608,12 +3815,12 @@
           <t>INE101A01026</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
         <is>
           <t>AUTOMOBILES</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>1477</t>
@@ -3629,17 +3836,20 @@
           <t>2.94</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3656,12 +3866,12 @@
           <t>INE030A01027</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
         <is>
           <t>DIVERSIFIED FMCG</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>1489</t>
@@ -3677,17 +3887,20 @@
           <t>2.45</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3704,12 +3917,12 @@
           <t>INE296A01024</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
         <is>
           <t>FINANCE</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>464</t>
@@ -3725,17 +3938,20 @@
           <t>2.44</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3752,12 +3968,12 @@
           <t>INE044A01036</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
         <is>
           <t>PHARMACEUTICALS &amp; BIOTECHNOLOGY</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>1820</t>
@@ -3773,17 +3989,20 @@
           <t>2.11</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3800,12 +4019,12 @@
           <t>INE860A01027</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
         <is>
           <t>IT - SOFTWARE</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>1766</t>
@@ -3821,17 +4040,20 @@
           <t>2.03</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3848,12 +4070,12 @@
           <t>INE585B01010</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
         <is>
           <t>AUTOMOBILES</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>220</t>
@@ -3869,17 +4091,20 @@
           <t>1.8</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3896,12 +4121,12 @@
           <t>INE733E01010</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
         <is>
           <t>POWER</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>7915</t>
@@ -3917,17 +4142,20 @@
           <t>1.71</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3944,12 +4172,12 @@
           <t>INE758T01015</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
         <is>
           <t>RETAILING</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>11360</t>
@@ -3965,17 +4193,20 @@
           <t>1.67</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -3992,12 +4223,12 @@
           <t>INE155A01022</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
         <is>
           <t>AUTOMOBILES</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>3492</t>
@@ -4013,17 +4244,20 @@
           <t>1.66</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -4040,12 +4274,12 @@
           <t>INE280A01028</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
         <is>
           <t>CONSUMER DURABLES</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>694</t>
@@ -4061,17 +4295,20 @@
           <t>1.61</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -4088,12 +4325,12 @@
           <t>INE752E01010</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
         <is>
           <t>POWER</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>7626</t>
@@ -4109,17 +4346,20 @@
           <t>1.53</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -4136,12 +4376,12 @@
           <t>INE481G01011</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
         <is>
           <t>CEMENT &amp; CEMENT PRODUCTS</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>188</t>
@@ -4157,17 +4397,20 @@
           <t>1.44</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -4184,12 +4427,12 @@
           <t>INE081A01020</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FERROUS METALS</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>13735</t>
@@ -4205,17 +4448,20 @@
           <t>1.23</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -4232,12 +4478,12 @@
           <t>INE669C01036</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
         <is>
           <t>IT - SOFTWARE</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>1059</t>
@@ -4253,17 +4499,20 @@
           <t>1.18</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -4280,12 +4529,12 @@
           <t>INE021A01026</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
         <is>
           <t>CONSUMER DURABLES</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>749</t>
@@ -4301,17 +4550,20 @@
           <t>1.15</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -4328,12 +4580,12 @@
           <t>INE918I01026</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
         <is>
           <t>FINANCE</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>899</t>
@@ -4349,17 +4601,20 @@
           <t>1.04</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -4376,12 +4631,12 @@
           <t>INE239A01024</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
         <is>
           <t>FOOD PRODUCTS</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>596</t>
@@ -4397,17 +4652,20 @@
           <t>0.92</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -4424,12 +4682,12 @@
           <t>INE742F01042</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
         <is>
           <t>TRANSPORT INFRASTRUCTURE</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
           <t>1226</t>
@@ -4445,17 +4703,20 @@
           <t>0.9</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
@@ -4472,12 +4733,12 @@
           <t>INE095A01012</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
         <is>
           <t>BANKS</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
           <t>1099</t>
@@ -4493,17 +4754,20 @@
           <t>0.73</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related      </t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>Navi Mutual Fund</t>
         </is>
